--- a/RFID-nuevo/registros.xlsx
+++ b/RFID-nuevo/registros.xlsx
@@ -1,90 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Arduino\RFID-nuevo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEFBB51-E853-476D-8E1E-FCF284F88C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros" sheetId="1" r:id="rId1"/>
+    <sheet name="Registros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>2024-08-27 12:08:40</t>
-  </si>
-  <si>
-    <t>46befb2f51591</t>
-  </si>
-  <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
-    <t>Acceso denegado</t>
-  </si>
-  <si>
-    <t>2024-08-27 12:09:57</t>
-  </si>
-  <si>
-    <t>83effc2c</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Acceso permitido</t>
-  </si>
-  <si>
-    <t>2024-08-27 12:10:01</t>
-  </si>
-  <si>
-    <t>FECHA-HORA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,24 +54,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -386,73 +396,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col width="18.5703125" customWidth="1" min="1" max="1"/>
+    <col width="18.42578125" customWidth="1" min="2" max="2"/>
+    <col width="18.140625" customWidth="1" min="3" max="3"/>
+    <col width="18.5703125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA-HORA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ESTADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-08-28 - 09:16:22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-08-28 - 09:16:47</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-08-28 - 09:16:58</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-08-28 - 09:17:04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-08-28 - 09:17:13</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-08-28 - 09:17:38</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-08-28 - 09:17:43</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/RFID-nuevo/registros.xlsx
+++ b/RFID-nuevo/registros.xlsx
@@ -1,41 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Arduino\RFID-nuevo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46973A36-F72B-4A3D-9C1C-B54FB33A8001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Registros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>FECHA-HORA</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>ENTRADA-SALIDA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,83 +79,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,199 +362,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18.5703125" customWidth="1" min="1" max="1"/>
-    <col width="18.42578125" customWidth="1" min="2" max="2"/>
-    <col width="18.140625" customWidth="1" min="3" max="3"/>
-    <col width="18.5703125" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FECHA-HORA</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>UID</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NOMBRE</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2024-08-28 - 09:16:22</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>83effc2c</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Pedro</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Acceso permitido</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2024-08-28 - 09:16:47</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>46befb2f51591</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Acceso denegado</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-08-28 - 09:16:58</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>46befb2f51591</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Acceso denegado</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-08-28 - 09:17:04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>46befb2f51591</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Acceso denegado</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-08-28 - 09:17:13</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>46befb2f51591</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Acceso permitido</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-08-28 - 09:17:38</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>46befb2f51591</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Juan</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Acceso permitido</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2024-08-28 - 09:17:43</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>46befb2f51591</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Desconocido</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Acceso denegado</t>
-        </is>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/RFID-nuevo/registros.xlsx
+++ b/RFID-nuevo/registros.xlsx
@@ -1,66 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\Arduino\RFID-nuevo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46973A36-F72B-4A3D-9C1C-B54FB33A8001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Registros" sheetId="1" r:id="rId1"/>
+    <sheet name="Registros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>FECHA-HORA</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>ENTRADA-SALIDA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,24 +54,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,37 +396,618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col width="18.5703125" customWidth="1" min="1" max="1"/>
+    <col width="18.42578125" customWidth="1" min="2" max="2"/>
+    <col width="18.140625" customWidth="1" min="3" max="3"/>
+    <col width="18.5703125" customWidth="1" min="4" max="4"/>
+    <col width="18.28515625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>FECHA-HORA</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>UID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ESTADO</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ENTRADA-SALIDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:22:22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5363f0757101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mari</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:22:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5363f0757101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mari</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:23:55</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:24:13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:25:26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:25:40</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:27:13</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:27:20</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:27:27</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:27:34</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:28:05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:28:19</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:28:29</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:28:35</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:30:21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:30:52</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:30:58</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:49:51</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:49:59</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:50:21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-08-30 - 09:57:16</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Lucia</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/RFID-nuevo/registros.xlsx
+++ b/RFID-nuevo/registros.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1010,6 +1010,87 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-08-31 - 10:34:08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-08-31 - 10:34:15</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-08-31 - 10:34:34</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RFID-nuevo/registros.xlsx
+++ b/RFID-nuevo/registros.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1091,6 +1091,141 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 09:57:27</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 09:57:34</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 09:57:48</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 09:58:14</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 09:58:19</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RFID-nuevo/registros.xlsx
+++ b/RFID-nuevo/registros.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -1226,6 +1226,357 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 10:07:29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 10:33:20</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 16:00:07</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 16:00:15</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 16:00:24</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 16:45:28</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 16:57:00</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 16:57:13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-09-02 - 17:01:51</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>46befb2f51591</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-09-03 - 10:08:28</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-09-03 - 10:09:14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-09-03 - 10:09:36</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-09-03 - 10:10:04</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>37b7432</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Acceso denegado</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RFID-nuevo/registros.xlsx
+++ b/RFID-nuevo/registros.xlsx
@@ -401,7 +401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -605,6 +605,60 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-09-04 - 17:28:03</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-09-04 - 17:28:24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>83effc2c</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acceso permitido</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Salida</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
